--- a/1 - PlanilhaPowerApps.xlsx
+++ b/1 - PlanilhaPowerApps.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <x:si>
     <x:t>ID</x:t>
   </x:si>
@@ -114,7 +114,13 @@
     <x:t>EscritorioID</x:t>
   </x:si>
   <x:si>
-    <x:t>L7bAkHg85NA</x:t>
+    <x:t>27/12/2022</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lucas teste form</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CIvCYQ4oJxk</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -124,13 +130,27 @@
   <x:numFmts count="1">
     <x:numFmt numFmtId="0" formatCode=""/>
   </x:numFmts>
-  <x:fonts count="3" x14ac:knownFonts="1">
+  <x:fonts count="5" x14ac:knownFonts="1">
     <x:font>
       <x:sz val="11"/>
       <x:color theme="1"/>
       <x:name val="Calibri"/>
       <x:family val="2"/>
       <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:vertAlign val="baseline"/>
+      <x:sz val="11"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+    </x:font>
+    <x:font>
+      <x:vertAlign val="baseline"/>
+      <x:sz val="11"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
     </x:font>
     <x:font>
       <x:vertAlign val="baseline"/>
@@ -784,12 +804,20 @@
       </x:c>
     </x:row>
     <x:row r="2" spans="1:5">
-      <x:c r="A2" s="1" t="s"/>
-      <x:c r="B2" s="1" t="s"/>
-      <x:c r="C2" s="1" t="s"/>
-      <x:c r="D2" s="1" t="s"/>
+      <x:c r="A2" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B2" s="1" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="C2" s="1" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="D2" s="1" t="n">
+        <x:v>6</x:v>
+      </x:c>
       <x:c r="E2" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/1 - PlanilhaPowerApps.xlsx
+++ b/1 - PlanilhaPowerApps.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <x:si>
     <x:t>ID</x:t>
   </x:si>
@@ -121,6 +121,18 @@
   </x:si>
   <x:si>
     <x:t>CIvCYQ4oJxk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16/02/2023</x:t>
+  </x:si>
+  <x:si>
+    <x:t>admin@M365x60715098.onmicrosoft.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8UwE35138aY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>q15ChZoAq7Q</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -239,8 +251,8 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Agendamentos" displayName="Agendamentos" ref="A1:E2" totalsRowShown="0">
-  <x:autoFilter ref="A1:E2"/>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Agendamentos" displayName="Agendamentos" ref="A1:E4" totalsRowShown="0">
+  <x:autoFilter ref="A1:E4"/>
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="ID "/>
     <x:tableColumn id="2" name="Data"/>
@@ -820,6 +832,40 @@
         <x:v>30</x:v>
       </x:c>
     </x:row>
+    <x:row r="3" spans="1:5">
+      <x:c r="A3" s="1" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="B3" s="1" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="C3" s="1" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D3" s="1" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="E3" s="1" t="s">
+        <x:v>33</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:5">
+      <x:c r="A4" s="1" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B4" s="1" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="C4" s="1" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D4" s="1" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E4" s="1" t="s">
+        <x:v>34</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/1 - PlanilhaPowerApps.xlsx
+++ b/1 - PlanilhaPowerApps.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <x:si>
     <x:t>ID</x:t>
   </x:si>
@@ -133,6 +133,21 @@
   </x:si>
   <x:si>
     <x:t>q15ChZoAq7Q</x:t>
+  </x:si>
+  <x:si>
+    <x:t>60-avI0nttk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>oekX4IqVUgk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>kuxpKrul7Wo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18/01/2023</x:t>
+  </x:si>
+  <x:si>
+    <x:t>iPvH2qetlhs</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -142,13 +157,41 @@
   <x:numFmts count="1">
     <x:numFmt numFmtId="0" formatCode=""/>
   </x:numFmts>
-  <x:fonts count="5" x14ac:knownFonts="1">
+  <x:fonts count="9" x14ac:knownFonts="1">
     <x:font>
       <x:sz val="11"/>
       <x:color theme="1"/>
       <x:name val="Calibri"/>
       <x:family val="2"/>
       <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:vertAlign val="baseline"/>
+      <x:sz val="11"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+    </x:font>
+    <x:font>
+      <x:vertAlign val="baseline"/>
+      <x:sz val="11"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+    </x:font>
+    <x:font>
+      <x:vertAlign val="baseline"/>
+      <x:sz val="11"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+    </x:font>
+    <x:font>
+      <x:vertAlign val="baseline"/>
+      <x:sz val="11"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
     </x:font>
     <x:font>
       <x:vertAlign val="baseline"/>
@@ -251,8 +294,8 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Agendamentos" displayName="Agendamentos" ref="A1:E4" totalsRowShown="0">
-  <x:autoFilter ref="A1:E4"/>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Agendamentos" displayName="Agendamentos" ref="A1:E8" totalsRowShown="0">
+  <x:autoFilter ref="A1:E8"/>
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="ID "/>
     <x:tableColumn id="2" name="Data"/>
@@ -866,6 +909,74 @@
         <x:v>34</x:v>
       </x:c>
     </x:row>
+    <x:row r="5" spans="1:5">
+      <x:c r="A5" s="1" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B5" s="1" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="C5" s="1" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D5" s="1" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="E5" s="1" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:5">
+      <x:c r="A6" s="1" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B6" s="1" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="C6" s="1" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D6" s="1" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="E6" s="1" t="s">
+        <x:v>36</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:5">
+      <x:c r="A7" s="1" t="n">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="B7" s="1" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="C7" s="1" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D7" s="1" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="E7" s="1" t="s">
+        <x:v>37</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:5">
+      <x:c r="A8" s="1" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B8" s="1" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="C8" s="1" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D8" s="1" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="E8" s="1" t="s">
+        <x:v>39</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/1 - PlanilhaPowerApps.xlsx
+++ b/1 - PlanilhaPowerApps.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <x:si>
     <x:t>ID</x:t>
   </x:si>
@@ -148,6 +148,12 @@
   </x:si>
   <x:si>
     <x:t>iPvH2qetlhs</x:t>
+  </x:si>
+  <x:si>
+    <x:t>28/12/2022</x:t>
+  </x:si>
+  <x:si>
+    <x:t>JNc1HD7e5TQ</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -157,13 +163,27 @@
   <x:numFmts count="1">
     <x:numFmt numFmtId="0" formatCode=""/>
   </x:numFmts>
-  <x:fonts count="9" x14ac:knownFonts="1">
+  <x:fonts count="11" x14ac:knownFonts="1">
     <x:font>
       <x:sz val="11"/>
       <x:color theme="1"/>
       <x:name val="Calibri"/>
       <x:family val="2"/>
       <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:vertAlign val="baseline"/>
+      <x:sz val="11"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+    </x:font>
+    <x:font>
+      <x:vertAlign val="baseline"/>
+      <x:sz val="11"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
     </x:font>
     <x:font>
       <x:vertAlign val="baseline"/>
@@ -294,8 +314,8 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Agendamentos" displayName="Agendamentos" ref="A1:E8" totalsRowShown="0">
-  <x:autoFilter ref="A1:E8"/>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Agendamentos" displayName="Agendamentos" ref="A1:E9" totalsRowShown="0">
+  <x:autoFilter ref="A1:E9"/>
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="ID "/>
     <x:tableColumn id="2" name="Data"/>
@@ -977,6 +997,23 @@
         <x:v>39</x:v>
       </x:c>
     </x:row>
+    <x:row r="9" spans="1:5">
+      <x:c r="A9" s="1" t="n">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B9" s="1" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="C9" s="1" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D9" s="1" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E9" s="1" t="s">
+        <x:v>41</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
